--- a/dataset-for-ml/Onepiece-skills.xlsx
+++ b/dataset-for-ml/Onepiece-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\machine-leaning\dataset-for-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91341819-A396-448C-9852-CA05972F6F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3737EC0-D50B-4487-B8C2-F47BB80566F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4A05D96-D6DC-4DAD-94F8-C4AC0464FEDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>emp_id</t>
   </si>
@@ -186,6 +186,216 @@
   </si>
   <si>
     <t>Onepiece</t>
+  </si>
+  <si>
+    <t>skill31</t>
+  </si>
+  <si>
+    <t>skill32</t>
+  </si>
+  <si>
+    <t>skill33</t>
+  </si>
+  <si>
+    <t>skill34</t>
+  </si>
+  <si>
+    <t>skill35</t>
+  </si>
+  <si>
+    <t>skill36</t>
+  </si>
+  <si>
+    <t>skill37</t>
+  </si>
+  <si>
+    <t>skill38</t>
+  </si>
+  <si>
+    <t>skill39</t>
+  </si>
+  <si>
+    <t>skill40</t>
+  </si>
+  <si>
+    <t>skill41</t>
+  </si>
+  <si>
+    <t>skill42</t>
+  </si>
+  <si>
+    <t>skill43</t>
+  </si>
+  <si>
+    <t>skill44</t>
+  </si>
+  <si>
+    <t>skill45</t>
+  </si>
+  <si>
+    <t>skill46</t>
+  </si>
+  <si>
+    <t>skill47</t>
+  </si>
+  <si>
+    <t>skill48</t>
+  </si>
+  <si>
+    <t>skill49</t>
+  </si>
+  <si>
+    <t>skill50</t>
+  </si>
+  <si>
+    <t>skill51</t>
+  </si>
+  <si>
+    <t>skill52</t>
+  </si>
+  <si>
+    <t>skill53</t>
+  </si>
+  <si>
+    <t>skill54</t>
+  </si>
+  <si>
+    <t>skill55</t>
+  </si>
+  <si>
+    <t>skill56</t>
+  </si>
+  <si>
+    <t>skill57</t>
+  </si>
+  <si>
+    <t>skill58</t>
+  </si>
+  <si>
+    <t>skill59</t>
+  </si>
+  <si>
+    <t>skill60</t>
+  </si>
+  <si>
+    <t>skill61</t>
+  </si>
+  <si>
+    <t>skill62</t>
+  </si>
+  <si>
+    <t>skill63</t>
+  </si>
+  <si>
+    <t>skill64</t>
+  </si>
+  <si>
+    <t>skill65</t>
+  </si>
+  <si>
+    <t>skill66</t>
+  </si>
+  <si>
+    <t>skill67</t>
+  </si>
+  <si>
+    <t>skill68</t>
+  </si>
+  <si>
+    <t>skill69</t>
+  </si>
+  <si>
+    <t>skill70</t>
+  </si>
+  <si>
+    <t>skill71</t>
+  </si>
+  <si>
+    <t>skill72</t>
+  </si>
+  <si>
+    <t>skill73</t>
+  </si>
+  <si>
+    <t>skill74</t>
+  </si>
+  <si>
+    <t>skill75</t>
+  </si>
+  <si>
+    <t>skill76</t>
+  </si>
+  <si>
+    <t>skill77</t>
+  </si>
+  <si>
+    <t>skill78</t>
+  </si>
+  <si>
+    <t>skill79</t>
+  </si>
+  <si>
+    <t>skill80</t>
+  </si>
+  <si>
+    <t>skill81</t>
+  </si>
+  <si>
+    <t>skill82</t>
+  </si>
+  <si>
+    <t>skill83</t>
+  </si>
+  <si>
+    <t>skill84</t>
+  </si>
+  <si>
+    <t>skill85</t>
+  </si>
+  <si>
+    <t>skill86</t>
+  </si>
+  <si>
+    <t>skill87</t>
+  </si>
+  <si>
+    <t>skill88</t>
+  </si>
+  <si>
+    <t>skill89</t>
+  </si>
+  <si>
+    <t>skill90</t>
+  </si>
+  <si>
+    <t>skill91</t>
+  </si>
+  <si>
+    <t>skill92</t>
+  </si>
+  <si>
+    <t>skill93</t>
+  </si>
+  <si>
+    <t>skill94</t>
+  </si>
+  <si>
+    <t>skill95</t>
+  </si>
+  <si>
+    <t>skill96</t>
+  </si>
+  <si>
+    <t>skill97</t>
+  </si>
+  <si>
+    <t>skill98</t>
+  </si>
+  <si>
+    <t>skill99</t>
+  </si>
+  <si>
+    <t>skill100</t>
   </si>
 </sst>
 </file>
@@ -193,7 +403,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -232,7 +442,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,20 +777,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD699DB3-EEA2-44CB-A880-C66931FEDFDB}">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:DA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="4" width="16.109375" customWidth="1"/>
-    <col min="6" max="35" width="5.77734375" customWidth="1"/>
+    <col min="6" max="105" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,8 +896,218 @@
       <c r="AI1" t="s">
         <v>32</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100000001</v>
       </c>
@@ -791,8 +1211,218 @@
       <c r="AI2">
         <v>75</v>
       </c>
+      <c r="AJ2">
+        <v>75</v>
+      </c>
+      <c r="AK2">
+        <v>25</v>
+      </c>
+      <c r="AL2">
+        <v>75</v>
+      </c>
+      <c r="AM2">
+        <v>50</v>
+      </c>
+      <c r="AN2">
+        <v>30</v>
+      </c>
+      <c r="AO2">
+        <v>50</v>
+      </c>
+      <c r="AP2">
+        <v>30</v>
+      </c>
+      <c r="AQ2">
+        <v>30</v>
+      </c>
+      <c r="AR2">
+        <v>25</v>
+      </c>
+      <c r="AS2">
+        <v>75</v>
+      </c>
+      <c r="AT2">
+        <v>25</v>
+      </c>
+      <c r="AU2">
+        <v>75</v>
+      </c>
+      <c r="AV2">
+        <v>50</v>
+      </c>
+      <c r="AW2">
+        <v>30</v>
+      </c>
+      <c r="AX2">
+        <v>50</v>
+      </c>
+      <c r="AY2">
+        <v>30</v>
+      </c>
+      <c r="AZ2">
+        <v>30</v>
+      </c>
+      <c r="BA2">
+        <v>25</v>
+      </c>
+      <c r="BB2">
+        <v>75</v>
+      </c>
+      <c r="BC2">
+        <v>25</v>
+      </c>
+      <c r="BD2">
+        <v>75</v>
+      </c>
+      <c r="BE2">
+        <v>50</v>
+      </c>
+      <c r="BF2">
+        <v>30</v>
+      </c>
+      <c r="BG2">
+        <v>50</v>
+      </c>
+      <c r="BH2">
+        <v>30</v>
+      </c>
+      <c r="BI2">
+        <v>30</v>
+      </c>
+      <c r="BJ2">
+        <v>25</v>
+      </c>
+      <c r="BK2">
+        <v>25</v>
+      </c>
+      <c r="BL2">
+        <v>75</v>
+      </c>
+      <c r="BM2">
+        <v>25</v>
+      </c>
+      <c r="BN2">
+        <v>75</v>
+      </c>
+      <c r="BO2">
+        <v>25</v>
+      </c>
+      <c r="BP2">
+        <v>75</v>
+      </c>
+      <c r="BQ2">
+        <v>25</v>
+      </c>
+      <c r="BR2">
+        <v>75</v>
+      </c>
+      <c r="BS2">
+        <v>25</v>
+      </c>
+      <c r="BT2">
+        <v>75</v>
+      </c>
+      <c r="BU2">
+        <v>25</v>
+      </c>
+      <c r="BV2">
+        <v>75</v>
+      </c>
+      <c r="BW2">
+        <v>25</v>
+      </c>
+      <c r="BX2">
+        <v>75</v>
+      </c>
+      <c r="BY2">
+        <v>25</v>
+      </c>
+      <c r="BZ2">
+        <v>75</v>
+      </c>
+      <c r="CA2">
+        <v>25</v>
+      </c>
+      <c r="CB2">
+        <v>75</v>
+      </c>
+      <c r="CC2">
+        <v>25</v>
+      </c>
+      <c r="CD2">
+        <v>75</v>
+      </c>
+      <c r="CE2">
+        <v>25</v>
+      </c>
+      <c r="CF2">
+        <v>75</v>
+      </c>
+      <c r="CG2">
+        <v>25</v>
+      </c>
+      <c r="CH2">
+        <v>75</v>
+      </c>
+      <c r="CI2">
+        <v>25</v>
+      </c>
+      <c r="CJ2">
+        <v>75</v>
+      </c>
+      <c r="CK2">
+        <v>25</v>
+      </c>
+      <c r="CL2">
+        <v>75</v>
+      </c>
+      <c r="CM2">
+        <v>25</v>
+      </c>
+      <c r="CN2">
+        <v>75</v>
+      </c>
+      <c r="CO2">
+        <v>25</v>
+      </c>
+      <c r="CP2">
+        <v>75</v>
+      </c>
+      <c r="CQ2">
+        <v>25</v>
+      </c>
+      <c r="CR2">
+        <v>75</v>
+      </c>
+      <c r="CS2">
+        <v>25</v>
+      </c>
+      <c r="CT2">
+        <v>75</v>
+      </c>
+      <c r="CU2">
+        <v>25</v>
+      </c>
+      <c r="CV2">
+        <v>75</v>
+      </c>
+      <c r="CW2">
+        <v>25</v>
+      </c>
+      <c r="CX2">
+        <v>75</v>
+      </c>
+      <c r="CY2">
+        <v>25</v>
+      </c>
+      <c r="CZ2">
+        <v>75</v>
+      </c>
+      <c r="DA2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100000002</v>
       </c>
@@ -899,8 +1529,218 @@
       <c r="AI3">
         <v>25</v>
       </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>75</v>
+      </c>
+      <c r="AL3">
+        <v>25</v>
+      </c>
+      <c r="AM3">
+        <v>50</v>
+      </c>
+      <c r="AN3">
+        <v>50</v>
+      </c>
+      <c r="AO3">
+        <v>50</v>
+      </c>
+      <c r="AP3">
+        <v>50</v>
+      </c>
+      <c r="AQ3">
+        <v>50</v>
+      </c>
+      <c r="AR3">
+        <v>75</v>
+      </c>
+      <c r="AS3">
+        <v>25</v>
+      </c>
+      <c r="AT3">
+        <v>75</v>
+      </c>
+      <c r="AU3">
+        <v>25</v>
+      </c>
+      <c r="AV3">
+        <v>50</v>
+      </c>
+      <c r="AW3">
+        <v>50</v>
+      </c>
+      <c r="AX3">
+        <v>50</v>
+      </c>
+      <c r="AY3">
+        <v>50</v>
+      </c>
+      <c r="AZ3">
+        <v>50</v>
+      </c>
+      <c r="BA3">
+        <v>75</v>
+      </c>
+      <c r="BB3">
+        <v>25</v>
+      </c>
+      <c r="BC3">
+        <v>75</v>
+      </c>
+      <c r="BD3">
+        <v>25</v>
+      </c>
+      <c r="BE3">
+        <v>50</v>
+      </c>
+      <c r="BF3">
+        <v>50</v>
+      </c>
+      <c r="BG3">
+        <v>50</v>
+      </c>
+      <c r="BH3">
+        <v>50</v>
+      </c>
+      <c r="BI3">
+        <v>50</v>
+      </c>
+      <c r="BJ3">
+        <v>75</v>
+      </c>
+      <c r="BK3">
+        <v>75</v>
+      </c>
+      <c r="BL3">
+        <v>25</v>
+      </c>
+      <c r="BM3">
+        <v>75</v>
+      </c>
+      <c r="BN3">
+        <v>25</v>
+      </c>
+      <c r="BO3">
+        <v>75</v>
+      </c>
+      <c r="BP3">
+        <v>25</v>
+      </c>
+      <c r="BQ3">
+        <v>75</v>
+      </c>
+      <c r="BR3">
+        <v>25</v>
+      </c>
+      <c r="BS3">
+        <v>75</v>
+      </c>
+      <c r="BT3">
+        <v>25</v>
+      </c>
+      <c r="BU3">
+        <v>75</v>
+      </c>
+      <c r="BV3">
+        <v>25</v>
+      </c>
+      <c r="BW3">
+        <v>75</v>
+      </c>
+      <c r="BX3">
+        <v>25</v>
+      </c>
+      <c r="BY3">
+        <v>75</v>
+      </c>
+      <c r="BZ3">
+        <v>25</v>
+      </c>
+      <c r="CA3">
+        <v>75</v>
+      </c>
+      <c r="CB3">
+        <v>25</v>
+      </c>
+      <c r="CC3">
+        <v>75</v>
+      </c>
+      <c r="CD3">
+        <v>25</v>
+      </c>
+      <c r="CE3">
+        <v>75</v>
+      </c>
+      <c r="CF3">
+        <v>25</v>
+      </c>
+      <c r="CG3">
+        <v>75</v>
+      </c>
+      <c r="CH3">
+        <v>25</v>
+      </c>
+      <c r="CI3">
+        <v>75</v>
+      </c>
+      <c r="CJ3">
+        <v>25</v>
+      </c>
+      <c r="CK3">
+        <v>75</v>
+      </c>
+      <c r="CL3">
+        <v>25</v>
+      </c>
+      <c r="CM3">
+        <v>75</v>
+      </c>
+      <c r="CN3">
+        <v>25</v>
+      </c>
+      <c r="CO3">
+        <v>75</v>
+      </c>
+      <c r="CP3">
+        <v>25</v>
+      </c>
+      <c r="CQ3">
+        <v>75</v>
+      </c>
+      <c r="CR3">
+        <v>25</v>
+      </c>
+      <c r="CS3">
+        <v>75</v>
+      </c>
+      <c r="CT3">
+        <v>25</v>
+      </c>
+      <c r="CU3">
+        <v>75</v>
+      </c>
+      <c r="CV3">
+        <v>25</v>
+      </c>
+      <c r="CW3">
+        <v>75</v>
+      </c>
+      <c r="CX3">
+        <v>25</v>
+      </c>
+      <c r="CY3">
+        <v>75</v>
+      </c>
+      <c r="CZ3">
+        <v>25</v>
+      </c>
+      <c r="DA3">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100000003</v>
       </c>
@@ -1004,8 +1844,218 @@
       <c r="AI4">
         <v>25</v>
       </c>
+      <c r="AJ4">
+        <v>75</v>
+      </c>
+      <c r="AK4">
+        <v>50</v>
+      </c>
+      <c r="AL4">
+        <v>75</v>
+      </c>
+      <c r="AM4">
+        <v>100</v>
+      </c>
+      <c r="AN4">
+        <v>100</v>
+      </c>
+      <c r="AO4">
+        <v>100</v>
+      </c>
+      <c r="AP4">
+        <v>100</v>
+      </c>
+      <c r="AQ4">
+        <v>100</v>
+      </c>
+      <c r="AR4">
+        <v>50</v>
+      </c>
+      <c r="AS4">
+        <v>75</v>
+      </c>
+      <c r="AT4">
+        <v>50</v>
+      </c>
+      <c r="AU4">
+        <v>75</v>
+      </c>
+      <c r="AV4">
+        <v>100</v>
+      </c>
+      <c r="AW4">
+        <v>100</v>
+      </c>
+      <c r="AX4">
+        <v>100</v>
+      </c>
+      <c r="AY4">
+        <v>100</v>
+      </c>
+      <c r="AZ4">
+        <v>100</v>
+      </c>
+      <c r="BA4">
+        <v>50</v>
+      </c>
+      <c r="BB4">
+        <v>75</v>
+      </c>
+      <c r="BC4">
+        <v>50</v>
+      </c>
+      <c r="BD4">
+        <v>75</v>
+      </c>
+      <c r="BE4">
+        <v>100</v>
+      </c>
+      <c r="BF4">
+        <v>100</v>
+      </c>
+      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>50</v>
+      </c>
+      <c r="BK4">
+        <v>50</v>
+      </c>
+      <c r="BL4">
+        <v>75</v>
+      </c>
+      <c r="BM4">
+        <v>50</v>
+      </c>
+      <c r="BN4">
+        <v>75</v>
+      </c>
+      <c r="BO4">
+        <v>50</v>
+      </c>
+      <c r="BP4">
+        <v>75</v>
+      </c>
+      <c r="BQ4">
+        <v>50</v>
+      </c>
+      <c r="BR4">
+        <v>75</v>
+      </c>
+      <c r="BS4">
+        <v>50</v>
+      </c>
+      <c r="BT4">
+        <v>75</v>
+      </c>
+      <c r="BU4">
+        <v>50</v>
+      </c>
+      <c r="BV4">
+        <v>75</v>
+      </c>
+      <c r="BW4">
+        <v>50</v>
+      </c>
+      <c r="BX4">
+        <v>75</v>
+      </c>
+      <c r="BY4">
+        <v>50</v>
+      </c>
+      <c r="BZ4">
+        <v>75</v>
+      </c>
+      <c r="CA4">
+        <v>50</v>
+      </c>
+      <c r="CB4">
+        <v>75</v>
+      </c>
+      <c r="CC4">
+        <v>50</v>
+      </c>
+      <c r="CD4">
+        <v>75</v>
+      </c>
+      <c r="CE4">
+        <v>50</v>
+      </c>
+      <c r="CF4">
+        <v>75</v>
+      </c>
+      <c r="CG4">
+        <v>50</v>
+      </c>
+      <c r="CH4">
+        <v>75</v>
+      </c>
+      <c r="CI4">
+        <v>50</v>
+      </c>
+      <c r="CJ4">
+        <v>75</v>
+      </c>
+      <c r="CK4">
+        <v>50</v>
+      </c>
+      <c r="CL4">
+        <v>75</v>
+      </c>
+      <c r="CM4">
+        <v>50</v>
+      </c>
+      <c r="CN4">
+        <v>75</v>
+      </c>
+      <c r="CO4">
+        <v>50</v>
+      </c>
+      <c r="CP4">
+        <v>75</v>
+      </c>
+      <c r="CQ4">
+        <v>50</v>
+      </c>
+      <c r="CR4">
+        <v>75</v>
+      </c>
+      <c r="CS4">
+        <v>50</v>
+      </c>
+      <c r="CT4">
+        <v>75</v>
+      </c>
+      <c r="CU4">
+        <v>50</v>
+      </c>
+      <c r="CV4">
+        <v>75</v>
+      </c>
+      <c r="CW4">
+        <v>50</v>
+      </c>
+      <c r="CX4">
+        <v>75</v>
+      </c>
+      <c r="CY4">
+        <v>50</v>
+      </c>
+      <c r="CZ4">
+        <v>75</v>
+      </c>
+      <c r="DA4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100000004</v>
       </c>
@@ -1109,8 +2159,218 @@
       <c r="AI5">
         <v>50</v>
       </c>
+      <c r="AJ5">
+        <v>50</v>
+      </c>
+      <c r="AK5">
+        <v>30</v>
+      </c>
+      <c r="AL5">
+        <v>50</v>
+      </c>
+      <c r="AM5">
+        <v>75</v>
+      </c>
+      <c r="AN5">
+        <v>75</v>
+      </c>
+      <c r="AO5">
+        <v>75</v>
+      </c>
+      <c r="AP5">
+        <v>75</v>
+      </c>
+      <c r="AQ5">
+        <v>75</v>
+      </c>
+      <c r="AR5">
+        <v>30</v>
+      </c>
+      <c r="AS5">
+        <v>50</v>
+      </c>
+      <c r="AT5">
+        <v>30</v>
+      </c>
+      <c r="AU5">
+        <v>50</v>
+      </c>
+      <c r="AV5">
+        <v>75</v>
+      </c>
+      <c r="AW5">
+        <v>75</v>
+      </c>
+      <c r="AX5">
+        <v>75</v>
+      </c>
+      <c r="AY5">
+        <v>75</v>
+      </c>
+      <c r="AZ5">
+        <v>75</v>
+      </c>
+      <c r="BA5">
+        <v>30</v>
+      </c>
+      <c r="BB5">
+        <v>50</v>
+      </c>
+      <c r="BC5">
+        <v>30</v>
+      </c>
+      <c r="BD5">
+        <v>50</v>
+      </c>
+      <c r="BE5">
+        <v>75</v>
+      </c>
+      <c r="BF5">
+        <v>75</v>
+      </c>
+      <c r="BG5">
+        <v>75</v>
+      </c>
+      <c r="BH5">
+        <v>75</v>
+      </c>
+      <c r="BI5">
+        <v>75</v>
+      </c>
+      <c r="BJ5">
+        <v>30</v>
+      </c>
+      <c r="BK5">
+        <v>30</v>
+      </c>
+      <c r="BL5">
+        <v>50</v>
+      </c>
+      <c r="BM5">
+        <v>30</v>
+      </c>
+      <c r="BN5">
+        <v>50</v>
+      </c>
+      <c r="BO5">
+        <v>30</v>
+      </c>
+      <c r="BP5">
+        <v>50</v>
+      </c>
+      <c r="BQ5">
+        <v>30</v>
+      </c>
+      <c r="BR5">
+        <v>50</v>
+      </c>
+      <c r="BS5">
+        <v>30</v>
+      </c>
+      <c r="BT5">
+        <v>50</v>
+      </c>
+      <c r="BU5">
+        <v>30</v>
+      </c>
+      <c r="BV5">
+        <v>50</v>
+      </c>
+      <c r="BW5">
+        <v>30</v>
+      </c>
+      <c r="BX5">
+        <v>50</v>
+      </c>
+      <c r="BY5">
+        <v>30</v>
+      </c>
+      <c r="BZ5">
+        <v>50</v>
+      </c>
+      <c r="CA5">
+        <v>30</v>
+      </c>
+      <c r="CB5">
+        <v>50</v>
+      </c>
+      <c r="CC5">
+        <v>30</v>
+      </c>
+      <c r="CD5">
+        <v>50</v>
+      </c>
+      <c r="CE5">
+        <v>30</v>
+      </c>
+      <c r="CF5">
+        <v>50</v>
+      </c>
+      <c r="CG5">
+        <v>30</v>
+      </c>
+      <c r="CH5">
+        <v>50</v>
+      </c>
+      <c r="CI5">
+        <v>30</v>
+      </c>
+      <c r="CJ5">
+        <v>50</v>
+      </c>
+      <c r="CK5">
+        <v>30</v>
+      </c>
+      <c r="CL5">
+        <v>50</v>
+      </c>
+      <c r="CM5">
+        <v>30</v>
+      </c>
+      <c r="CN5">
+        <v>50</v>
+      </c>
+      <c r="CO5">
+        <v>30</v>
+      </c>
+      <c r="CP5">
+        <v>50</v>
+      </c>
+      <c r="CQ5">
+        <v>30</v>
+      </c>
+      <c r="CR5">
+        <v>50</v>
+      </c>
+      <c r="CS5">
+        <v>30</v>
+      </c>
+      <c r="CT5">
+        <v>50</v>
+      </c>
+      <c r="CU5">
+        <v>30</v>
+      </c>
+      <c r="CV5">
+        <v>50</v>
+      </c>
+      <c r="CW5">
+        <v>30</v>
+      </c>
+      <c r="CX5">
+        <v>50</v>
+      </c>
+      <c r="CY5">
+        <v>30</v>
+      </c>
+      <c r="CZ5">
+        <v>50</v>
+      </c>
+      <c r="DA5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100000005</v>
       </c>
@@ -1217,8 +2477,218 @@
       <c r="AI6">
         <v>25</v>
       </c>
+      <c r="AJ6">
+        <v>30</v>
+      </c>
+      <c r="AK6">
+        <v>50</v>
+      </c>
+      <c r="AL6">
+        <v>30</v>
+      </c>
+      <c r="AM6">
+        <v>25</v>
+      </c>
+      <c r="AN6">
+        <v>25</v>
+      </c>
+      <c r="AO6">
+        <v>25</v>
+      </c>
+      <c r="AP6">
+        <v>25</v>
+      </c>
+      <c r="AQ6">
+        <v>25</v>
+      </c>
+      <c r="AR6">
+        <v>50</v>
+      </c>
+      <c r="AS6">
+        <v>30</v>
+      </c>
+      <c r="AT6">
+        <v>50</v>
+      </c>
+      <c r="AU6">
+        <v>30</v>
+      </c>
+      <c r="AV6">
+        <v>25</v>
+      </c>
+      <c r="AW6">
+        <v>25</v>
+      </c>
+      <c r="AX6">
+        <v>25</v>
+      </c>
+      <c r="AY6">
+        <v>25</v>
+      </c>
+      <c r="AZ6">
+        <v>25</v>
+      </c>
+      <c r="BA6">
+        <v>50</v>
+      </c>
+      <c r="BB6">
+        <v>30</v>
+      </c>
+      <c r="BC6">
+        <v>50</v>
+      </c>
+      <c r="BD6">
+        <v>30</v>
+      </c>
+      <c r="BE6">
+        <v>25</v>
+      </c>
+      <c r="BF6">
+        <v>25</v>
+      </c>
+      <c r="BG6">
+        <v>25</v>
+      </c>
+      <c r="BH6">
+        <v>25</v>
+      </c>
+      <c r="BI6">
+        <v>25</v>
+      </c>
+      <c r="BJ6">
+        <v>50</v>
+      </c>
+      <c r="BK6">
+        <v>50</v>
+      </c>
+      <c r="BL6">
+        <v>30</v>
+      </c>
+      <c r="BM6">
+        <v>50</v>
+      </c>
+      <c r="BN6">
+        <v>30</v>
+      </c>
+      <c r="BO6">
+        <v>50</v>
+      </c>
+      <c r="BP6">
+        <v>30</v>
+      </c>
+      <c r="BQ6">
+        <v>50</v>
+      </c>
+      <c r="BR6">
+        <v>30</v>
+      </c>
+      <c r="BS6">
+        <v>50</v>
+      </c>
+      <c r="BT6">
+        <v>30</v>
+      </c>
+      <c r="BU6">
+        <v>50</v>
+      </c>
+      <c r="BV6">
+        <v>30</v>
+      </c>
+      <c r="BW6">
+        <v>50</v>
+      </c>
+      <c r="BX6">
+        <v>30</v>
+      </c>
+      <c r="BY6">
+        <v>50</v>
+      </c>
+      <c r="BZ6">
+        <v>30</v>
+      </c>
+      <c r="CA6">
+        <v>50</v>
+      </c>
+      <c r="CB6">
+        <v>30</v>
+      </c>
+      <c r="CC6">
+        <v>50</v>
+      </c>
+      <c r="CD6">
+        <v>30</v>
+      </c>
+      <c r="CE6">
+        <v>50</v>
+      </c>
+      <c r="CF6">
+        <v>30</v>
+      </c>
+      <c r="CG6">
+        <v>50</v>
+      </c>
+      <c r="CH6">
+        <v>30</v>
+      </c>
+      <c r="CI6">
+        <v>50</v>
+      </c>
+      <c r="CJ6">
+        <v>30</v>
+      </c>
+      <c r="CK6">
+        <v>50</v>
+      </c>
+      <c r="CL6">
+        <v>30</v>
+      </c>
+      <c r="CM6">
+        <v>50</v>
+      </c>
+      <c r="CN6">
+        <v>30</v>
+      </c>
+      <c r="CO6">
+        <v>50</v>
+      </c>
+      <c r="CP6">
+        <v>30</v>
+      </c>
+      <c r="CQ6">
+        <v>50</v>
+      </c>
+      <c r="CR6">
+        <v>30</v>
+      </c>
+      <c r="CS6">
+        <v>50</v>
+      </c>
+      <c r="CT6">
+        <v>30</v>
+      </c>
+      <c r="CU6">
+        <v>50</v>
+      </c>
+      <c r="CV6">
+        <v>30</v>
+      </c>
+      <c r="CW6">
+        <v>50</v>
+      </c>
+      <c r="CX6">
+        <v>30</v>
+      </c>
+      <c r="CY6">
+        <v>50</v>
+      </c>
+      <c r="CZ6">
+        <v>30</v>
+      </c>
+      <c r="DA6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100000006</v>
       </c>
@@ -1325,8 +2795,218 @@
       <c r="AI7">
         <v>25</v>
       </c>
+      <c r="AJ7">
+        <v>50</v>
+      </c>
+      <c r="AK7">
+        <v>50</v>
+      </c>
+      <c r="AL7">
+        <v>50</v>
+      </c>
+      <c r="AM7">
+        <v>25</v>
+      </c>
+      <c r="AN7">
+        <v>25</v>
+      </c>
+      <c r="AO7">
+        <v>25</v>
+      </c>
+      <c r="AP7">
+        <v>25</v>
+      </c>
+      <c r="AQ7">
+        <v>25</v>
+      </c>
+      <c r="AR7">
+        <v>50</v>
+      </c>
+      <c r="AS7">
+        <v>50</v>
+      </c>
+      <c r="AT7">
+        <v>50</v>
+      </c>
+      <c r="AU7">
+        <v>50</v>
+      </c>
+      <c r="AV7">
+        <v>25</v>
+      </c>
+      <c r="AW7">
+        <v>25</v>
+      </c>
+      <c r="AX7">
+        <v>25</v>
+      </c>
+      <c r="AY7">
+        <v>25</v>
+      </c>
+      <c r="AZ7">
+        <v>25</v>
+      </c>
+      <c r="BA7">
+        <v>50</v>
+      </c>
+      <c r="BB7">
+        <v>50</v>
+      </c>
+      <c r="BC7">
+        <v>50</v>
+      </c>
+      <c r="BD7">
+        <v>50</v>
+      </c>
+      <c r="BE7">
+        <v>25</v>
+      </c>
+      <c r="BF7">
+        <v>25</v>
+      </c>
+      <c r="BG7">
+        <v>25</v>
+      </c>
+      <c r="BH7">
+        <v>25</v>
+      </c>
+      <c r="BI7">
+        <v>25</v>
+      </c>
+      <c r="BJ7">
+        <v>50</v>
+      </c>
+      <c r="BK7">
+        <v>50</v>
+      </c>
+      <c r="BL7">
+        <v>50</v>
+      </c>
+      <c r="BM7">
+        <v>50</v>
+      </c>
+      <c r="BN7">
+        <v>50</v>
+      </c>
+      <c r="BO7">
+        <v>50</v>
+      </c>
+      <c r="BP7">
+        <v>50</v>
+      </c>
+      <c r="BQ7">
+        <v>50</v>
+      </c>
+      <c r="BR7">
+        <v>50</v>
+      </c>
+      <c r="BS7">
+        <v>50</v>
+      </c>
+      <c r="BT7">
+        <v>50</v>
+      </c>
+      <c r="BU7">
+        <v>50</v>
+      </c>
+      <c r="BV7">
+        <v>50</v>
+      </c>
+      <c r="BW7">
+        <v>50</v>
+      </c>
+      <c r="BX7">
+        <v>50</v>
+      </c>
+      <c r="BY7">
+        <v>50</v>
+      </c>
+      <c r="BZ7">
+        <v>50</v>
+      </c>
+      <c r="CA7">
+        <v>50</v>
+      </c>
+      <c r="CB7">
+        <v>50</v>
+      </c>
+      <c r="CC7">
+        <v>50</v>
+      </c>
+      <c r="CD7">
+        <v>50</v>
+      </c>
+      <c r="CE7">
+        <v>50</v>
+      </c>
+      <c r="CF7">
+        <v>50</v>
+      </c>
+      <c r="CG7">
+        <v>50</v>
+      </c>
+      <c r="CH7">
+        <v>50</v>
+      </c>
+      <c r="CI7">
+        <v>50</v>
+      </c>
+      <c r="CJ7">
+        <v>50</v>
+      </c>
+      <c r="CK7">
+        <v>50</v>
+      </c>
+      <c r="CL7">
+        <v>50</v>
+      </c>
+      <c r="CM7">
+        <v>50</v>
+      </c>
+      <c r="CN7">
+        <v>50</v>
+      </c>
+      <c r="CO7">
+        <v>50</v>
+      </c>
+      <c r="CP7">
+        <v>50</v>
+      </c>
+      <c r="CQ7">
+        <v>50</v>
+      </c>
+      <c r="CR7">
+        <v>50</v>
+      </c>
+      <c r="CS7">
+        <v>50</v>
+      </c>
+      <c r="CT7">
+        <v>50</v>
+      </c>
+      <c r="CU7">
+        <v>50</v>
+      </c>
+      <c r="CV7">
+        <v>50</v>
+      </c>
+      <c r="CW7">
+        <v>50</v>
+      </c>
+      <c r="CX7">
+        <v>50</v>
+      </c>
+      <c r="CY7">
+        <v>50</v>
+      </c>
+      <c r="CZ7">
+        <v>50</v>
+      </c>
+      <c r="DA7">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100000007</v>
       </c>
@@ -1433,8 +3113,218 @@
       <c r="AI8">
         <v>75</v>
       </c>
+      <c r="AJ8">
+        <v>100</v>
+      </c>
+      <c r="AK8">
+        <v>100</v>
+      </c>
+      <c r="AL8">
+        <v>100</v>
+      </c>
+      <c r="AM8">
+        <v>50</v>
+      </c>
+      <c r="AN8">
+        <v>50</v>
+      </c>
+      <c r="AO8">
+        <v>100</v>
+      </c>
+      <c r="AP8">
+        <v>75</v>
+      </c>
+      <c r="AQ8">
+        <v>25</v>
+      </c>
+      <c r="AR8">
+        <v>75</v>
+      </c>
+      <c r="AS8">
+        <v>100</v>
+      </c>
+      <c r="AT8">
+        <v>100</v>
+      </c>
+      <c r="AU8">
+        <v>100</v>
+      </c>
+      <c r="AV8">
+        <v>50</v>
+      </c>
+      <c r="AW8">
+        <v>50</v>
+      </c>
+      <c r="AX8">
+        <v>100</v>
+      </c>
+      <c r="AY8">
+        <v>75</v>
+      </c>
+      <c r="AZ8">
+        <v>25</v>
+      </c>
+      <c r="BA8">
+        <v>75</v>
+      </c>
+      <c r="BB8">
+        <v>100</v>
+      </c>
+      <c r="BC8">
+        <v>100</v>
+      </c>
+      <c r="BD8">
+        <v>100</v>
+      </c>
+      <c r="BE8">
+        <v>50</v>
+      </c>
+      <c r="BF8">
+        <v>50</v>
+      </c>
+      <c r="BG8">
+        <v>100</v>
+      </c>
+      <c r="BH8">
+        <v>75</v>
+      </c>
+      <c r="BI8">
+        <v>25</v>
+      </c>
+      <c r="BJ8">
+        <v>75</v>
+      </c>
+      <c r="BK8">
+        <v>75</v>
+      </c>
+      <c r="BL8">
+        <v>100</v>
+      </c>
+      <c r="BM8">
+        <v>100</v>
+      </c>
+      <c r="BN8">
+        <v>100</v>
+      </c>
+      <c r="BO8">
+        <v>75</v>
+      </c>
+      <c r="BP8">
+        <v>100</v>
+      </c>
+      <c r="BQ8">
+        <v>100</v>
+      </c>
+      <c r="BR8">
+        <v>100</v>
+      </c>
+      <c r="BS8">
+        <v>75</v>
+      </c>
+      <c r="BT8">
+        <v>100</v>
+      </c>
+      <c r="BU8">
+        <v>100</v>
+      </c>
+      <c r="BV8">
+        <v>100</v>
+      </c>
+      <c r="BW8">
+        <v>75</v>
+      </c>
+      <c r="BX8">
+        <v>100</v>
+      </c>
+      <c r="BY8">
+        <v>100</v>
+      </c>
+      <c r="BZ8">
+        <v>100</v>
+      </c>
+      <c r="CA8">
+        <v>75</v>
+      </c>
+      <c r="CB8">
+        <v>100</v>
+      </c>
+      <c r="CC8">
+        <v>100</v>
+      </c>
+      <c r="CD8">
+        <v>100</v>
+      </c>
+      <c r="CE8">
+        <v>75</v>
+      </c>
+      <c r="CF8">
+        <v>100</v>
+      </c>
+      <c r="CG8">
+        <v>100</v>
+      </c>
+      <c r="CH8">
+        <v>100</v>
+      </c>
+      <c r="CI8">
+        <v>75</v>
+      </c>
+      <c r="CJ8">
+        <v>100</v>
+      </c>
+      <c r="CK8">
+        <v>100</v>
+      </c>
+      <c r="CL8">
+        <v>100</v>
+      </c>
+      <c r="CM8">
+        <v>75</v>
+      </c>
+      <c r="CN8">
+        <v>100</v>
+      </c>
+      <c r="CO8">
+        <v>100</v>
+      </c>
+      <c r="CP8">
+        <v>100</v>
+      </c>
+      <c r="CQ8">
+        <v>75</v>
+      </c>
+      <c r="CR8">
+        <v>100</v>
+      </c>
+      <c r="CS8">
+        <v>100</v>
+      </c>
+      <c r="CT8">
+        <v>100</v>
+      </c>
+      <c r="CU8">
+        <v>75</v>
+      </c>
+      <c r="CV8">
+        <v>100</v>
+      </c>
+      <c r="CW8">
+        <v>100</v>
+      </c>
+      <c r="CX8">
+        <v>100</v>
+      </c>
+      <c r="CY8">
+        <v>75</v>
+      </c>
+      <c r="CZ8">
+        <v>100</v>
+      </c>
+      <c r="DA8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100000008</v>
       </c>
@@ -1538,8 +3428,218 @@
       <c r="AI9">
         <v>25</v>
       </c>
+      <c r="AJ9">
+        <v>75</v>
+      </c>
+      <c r="AK9">
+        <v>75</v>
+      </c>
+      <c r="AL9">
+        <v>75</v>
+      </c>
+      <c r="AM9">
+        <v>30</v>
+      </c>
+      <c r="AN9">
+        <v>30</v>
+      </c>
+      <c r="AO9">
+        <v>75</v>
+      </c>
+      <c r="AP9">
+        <v>25</v>
+      </c>
+      <c r="AQ9">
+        <v>50</v>
+      </c>
+      <c r="AR9">
+        <v>25</v>
+      </c>
+      <c r="AS9">
+        <v>75</v>
+      </c>
+      <c r="AT9">
+        <v>75</v>
+      </c>
+      <c r="AU9">
+        <v>75</v>
+      </c>
+      <c r="AV9">
+        <v>30</v>
+      </c>
+      <c r="AW9">
+        <v>30</v>
+      </c>
+      <c r="AX9">
+        <v>75</v>
+      </c>
+      <c r="AY9">
+        <v>25</v>
+      </c>
+      <c r="AZ9">
+        <v>50</v>
+      </c>
+      <c r="BA9">
+        <v>25</v>
+      </c>
+      <c r="BB9">
+        <v>75</v>
+      </c>
+      <c r="BC9">
+        <v>75</v>
+      </c>
+      <c r="BD9">
+        <v>75</v>
+      </c>
+      <c r="BE9">
+        <v>30</v>
+      </c>
+      <c r="BF9">
+        <v>30</v>
+      </c>
+      <c r="BG9">
+        <v>75</v>
+      </c>
+      <c r="BH9">
+        <v>25</v>
+      </c>
+      <c r="BI9">
+        <v>50</v>
+      </c>
+      <c r="BJ9">
+        <v>25</v>
+      </c>
+      <c r="BK9">
+        <v>25</v>
+      </c>
+      <c r="BL9">
+        <v>75</v>
+      </c>
+      <c r="BM9">
+        <v>75</v>
+      </c>
+      <c r="BN9">
+        <v>75</v>
+      </c>
+      <c r="BO9">
+        <v>25</v>
+      </c>
+      <c r="BP9">
+        <v>75</v>
+      </c>
+      <c r="BQ9">
+        <v>75</v>
+      </c>
+      <c r="BR9">
+        <v>75</v>
+      </c>
+      <c r="BS9">
+        <v>25</v>
+      </c>
+      <c r="BT9">
+        <v>75</v>
+      </c>
+      <c r="BU9">
+        <v>75</v>
+      </c>
+      <c r="BV9">
+        <v>75</v>
+      </c>
+      <c r="BW9">
+        <v>25</v>
+      </c>
+      <c r="BX9">
+        <v>75</v>
+      </c>
+      <c r="BY9">
+        <v>75</v>
+      </c>
+      <c r="BZ9">
+        <v>75</v>
+      </c>
+      <c r="CA9">
+        <v>25</v>
+      </c>
+      <c r="CB9">
+        <v>75</v>
+      </c>
+      <c r="CC9">
+        <v>75</v>
+      </c>
+      <c r="CD9">
+        <v>75</v>
+      </c>
+      <c r="CE9">
+        <v>25</v>
+      </c>
+      <c r="CF9">
+        <v>75</v>
+      </c>
+      <c r="CG9">
+        <v>75</v>
+      </c>
+      <c r="CH9">
+        <v>75</v>
+      </c>
+      <c r="CI9">
+        <v>25</v>
+      </c>
+      <c r="CJ9">
+        <v>75</v>
+      </c>
+      <c r="CK9">
+        <v>75</v>
+      </c>
+      <c r="CL9">
+        <v>75</v>
+      </c>
+      <c r="CM9">
+        <v>25</v>
+      </c>
+      <c r="CN9">
+        <v>75</v>
+      </c>
+      <c r="CO9">
+        <v>75</v>
+      </c>
+      <c r="CP9">
+        <v>75</v>
+      </c>
+      <c r="CQ9">
+        <v>25</v>
+      </c>
+      <c r="CR9">
+        <v>75</v>
+      </c>
+      <c r="CS9">
+        <v>75</v>
+      </c>
+      <c r="CT9">
+        <v>75</v>
+      </c>
+      <c r="CU9">
+        <v>25</v>
+      </c>
+      <c r="CV9">
+        <v>75</v>
+      </c>
+      <c r="CW9">
+        <v>75</v>
+      </c>
+      <c r="CX9">
+        <v>75</v>
+      </c>
+      <c r="CY9">
+        <v>25</v>
+      </c>
+      <c r="CZ9">
+        <v>75</v>
+      </c>
+      <c r="DA9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100000009</v>
       </c>
@@ -1643,8 +3743,218 @@
       <c r="AI10">
         <v>25</v>
       </c>
+      <c r="AJ10">
+        <v>25</v>
+      </c>
+      <c r="AK10">
+        <v>25</v>
+      </c>
+      <c r="AL10">
+        <v>25</v>
+      </c>
+      <c r="AM10">
+        <v>50</v>
+      </c>
+      <c r="AN10">
+        <v>50</v>
+      </c>
+      <c r="AO10">
+        <v>25</v>
+      </c>
+      <c r="AP10">
+        <v>25</v>
+      </c>
+      <c r="AQ10">
+        <v>50</v>
+      </c>
+      <c r="AR10">
+        <v>25</v>
+      </c>
+      <c r="AS10">
+        <v>25</v>
+      </c>
+      <c r="AT10">
+        <v>25</v>
+      </c>
+      <c r="AU10">
+        <v>25</v>
+      </c>
+      <c r="AV10">
+        <v>50</v>
+      </c>
+      <c r="AW10">
+        <v>50</v>
+      </c>
+      <c r="AX10">
+        <v>25</v>
+      </c>
+      <c r="AY10">
+        <v>25</v>
+      </c>
+      <c r="AZ10">
+        <v>50</v>
+      </c>
+      <c r="BA10">
+        <v>25</v>
+      </c>
+      <c r="BB10">
+        <v>25</v>
+      </c>
+      <c r="BC10">
+        <v>25</v>
+      </c>
+      <c r="BD10">
+        <v>25</v>
+      </c>
+      <c r="BE10">
+        <v>50</v>
+      </c>
+      <c r="BF10">
+        <v>50</v>
+      </c>
+      <c r="BG10">
+        <v>25</v>
+      </c>
+      <c r="BH10">
+        <v>25</v>
+      </c>
+      <c r="BI10">
+        <v>50</v>
+      </c>
+      <c r="BJ10">
+        <v>25</v>
+      </c>
+      <c r="BK10">
+        <v>25</v>
+      </c>
+      <c r="BL10">
+        <v>25</v>
+      </c>
+      <c r="BM10">
+        <v>25</v>
+      </c>
+      <c r="BN10">
+        <v>25</v>
+      </c>
+      <c r="BO10">
+        <v>25</v>
+      </c>
+      <c r="BP10">
+        <v>25</v>
+      </c>
+      <c r="BQ10">
+        <v>25</v>
+      </c>
+      <c r="BR10">
+        <v>25</v>
+      </c>
+      <c r="BS10">
+        <v>25</v>
+      </c>
+      <c r="BT10">
+        <v>25</v>
+      </c>
+      <c r="BU10">
+        <v>25</v>
+      </c>
+      <c r="BV10">
+        <v>25</v>
+      </c>
+      <c r="BW10">
+        <v>25</v>
+      </c>
+      <c r="BX10">
+        <v>25</v>
+      </c>
+      <c r="BY10">
+        <v>25</v>
+      </c>
+      <c r="BZ10">
+        <v>25</v>
+      </c>
+      <c r="CA10">
+        <v>25</v>
+      </c>
+      <c r="CB10">
+        <v>25</v>
+      </c>
+      <c r="CC10">
+        <v>25</v>
+      </c>
+      <c r="CD10">
+        <v>25</v>
+      </c>
+      <c r="CE10">
+        <v>25</v>
+      </c>
+      <c r="CF10">
+        <v>25</v>
+      </c>
+      <c r="CG10">
+        <v>25</v>
+      </c>
+      <c r="CH10">
+        <v>25</v>
+      </c>
+      <c r="CI10">
+        <v>25</v>
+      </c>
+      <c r="CJ10">
+        <v>25</v>
+      </c>
+      <c r="CK10">
+        <v>25</v>
+      </c>
+      <c r="CL10">
+        <v>25</v>
+      </c>
+      <c r="CM10">
+        <v>25</v>
+      </c>
+      <c r="CN10">
+        <v>25</v>
+      </c>
+      <c r="CO10">
+        <v>25</v>
+      </c>
+      <c r="CP10">
+        <v>25</v>
+      </c>
+      <c r="CQ10">
+        <v>25</v>
+      </c>
+      <c r="CR10">
+        <v>25</v>
+      </c>
+      <c r="CS10">
+        <v>25</v>
+      </c>
+      <c r="CT10">
+        <v>25</v>
+      </c>
+      <c r="CU10">
+        <v>25</v>
+      </c>
+      <c r="CV10">
+        <v>25</v>
+      </c>
+      <c r="CW10">
+        <v>25</v>
+      </c>
+      <c r="CX10">
+        <v>25</v>
+      </c>
+      <c r="CY10">
+        <v>25</v>
+      </c>
+      <c r="CZ10">
+        <v>25</v>
+      </c>
+      <c r="DA10">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100000010</v>
       </c>
@@ -1750,6 +4060,216 @@
       </c>
       <c r="AI11">
         <v>50</v>
+      </c>
+      <c r="AJ11">
+        <v>25</v>
+      </c>
+      <c r="AK11">
+        <v>25</v>
+      </c>
+      <c r="AL11">
+        <v>25</v>
+      </c>
+      <c r="AM11">
+        <v>30</v>
+      </c>
+      <c r="AN11">
+        <v>30</v>
+      </c>
+      <c r="AO11">
+        <v>25</v>
+      </c>
+      <c r="AP11">
+        <v>50</v>
+      </c>
+      <c r="AQ11">
+        <v>50</v>
+      </c>
+      <c r="AR11">
+        <v>50</v>
+      </c>
+      <c r="AS11">
+        <v>25</v>
+      </c>
+      <c r="AT11">
+        <v>25</v>
+      </c>
+      <c r="AU11">
+        <v>25</v>
+      </c>
+      <c r="AV11">
+        <v>30</v>
+      </c>
+      <c r="AW11">
+        <v>30</v>
+      </c>
+      <c r="AX11">
+        <v>25</v>
+      </c>
+      <c r="AY11">
+        <v>50</v>
+      </c>
+      <c r="AZ11">
+        <v>50</v>
+      </c>
+      <c r="BA11">
+        <v>50</v>
+      </c>
+      <c r="BB11">
+        <v>25</v>
+      </c>
+      <c r="BC11">
+        <v>25</v>
+      </c>
+      <c r="BD11">
+        <v>25</v>
+      </c>
+      <c r="BE11">
+        <v>30</v>
+      </c>
+      <c r="BF11">
+        <v>30</v>
+      </c>
+      <c r="BG11">
+        <v>25</v>
+      </c>
+      <c r="BH11">
+        <v>50</v>
+      </c>
+      <c r="BI11">
+        <v>50</v>
+      </c>
+      <c r="BJ11">
+        <v>50</v>
+      </c>
+      <c r="BK11">
+        <v>50</v>
+      </c>
+      <c r="BL11">
+        <v>25</v>
+      </c>
+      <c r="BM11">
+        <v>25</v>
+      </c>
+      <c r="BN11">
+        <v>25</v>
+      </c>
+      <c r="BO11">
+        <v>50</v>
+      </c>
+      <c r="BP11">
+        <v>25</v>
+      </c>
+      <c r="BQ11">
+        <v>25</v>
+      </c>
+      <c r="BR11">
+        <v>25</v>
+      </c>
+      <c r="BS11">
+        <v>50</v>
+      </c>
+      <c r="BT11">
+        <v>25</v>
+      </c>
+      <c r="BU11">
+        <v>25</v>
+      </c>
+      <c r="BV11">
+        <v>25</v>
+      </c>
+      <c r="BW11">
+        <v>50</v>
+      </c>
+      <c r="BX11">
+        <v>25</v>
+      </c>
+      <c r="BY11">
+        <v>25</v>
+      </c>
+      <c r="BZ11">
+        <v>25</v>
+      </c>
+      <c r="CA11">
+        <v>50</v>
+      </c>
+      <c r="CB11">
+        <v>25</v>
+      </c>
+      <c r="CC11">
+        <v>25</v>
+      </c>
+      <c r="CD11">
+        <v>25</v>
+      </c>
+      <c r="CE11">
+        <v>50</v>
+      </c>
+      <c r="CF11">
+        <v>25</v>
+      </c>
+      <c r="CG11">
+        <v>25</v>
+      </c>
+      <c r="CH11">
+        <v>25</v>
+      </c>
+      <c r="CI11">
+        <v>50</v>
+      </c>
+      <c r="CJ11">
+        <v>25</v>
+      </c>
+      <c r="CK11">
+        <v>25</v>
+      </c>
+      <c r="CL11">
+        <v>25</v>
+      </c>
+      <c r="CM11">
+        <v>50</v>
+      </c>
+      <c r="CN11">
+        <v>25</v>
+      </c>
+      <c r="CO11">
+        <v>25</v>
+      </c>
+      <c r="CP11">
+        <v>25</v>
+      </c>
+      <c r="CQ11">
+        <v>50</v>
+      </c>
+      <c r="CR11">
+        <v>25</v>
+      </c>
+      <c r="CS11">
+        <v>25</v>
+      </c>
+      <c r="CT11">
+        <v>25</v>
+      </c>
+      <c r="CU11">
+        <v>50</v>
+      </c>
+      <c r="CV11">
+        <v>25</v>
+      </c>
+      <c r="CW11">
+        <v>25</v>
+      </c>
+      <c r="CX11">
+        <v>25</v>
+      </c>
+      <c r="CY11">
+        <v>50</v>
+      </c>
+      <c r="CZ11">
+        <v>25</v>
+      </c>
+      <c r="DA11">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
